--- a/xlsx/元老院_intext.xlsx
+++ b/xlsx/元老院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t>元老院</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%B3%BD%E7%BE%85</t>
   </si>
   <si>
-    <t>西賽羅</t>
+    <t>西赛罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8F%90%E6%9E%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%8E%8B%E6%94%BF%E6%97%B6%E4%BB%A3</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D27%E5%B9%B4</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1453%E5%B9%B4</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西羅馬帝國</t>
+    <t>西罗马帝国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dominate</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
+    <t>拜占庭帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%AE%AA%E6%94%BF</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>長官 (羅馬)</t>
+    <t>长官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%9F%B7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>羅馬執政官</t>
+    <t>罗马执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%88%A4%E5%AE%98</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%AE%98</t>
   </si>
   <si>
-    <t>財務官</t>
+    <t>财务官</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Promagistrate</t>
@@ -203,25 +203,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>監察官</t>
+    <t>监察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>羅馬總督</t>
+    <t>罗马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E5%AE%98</t>
   </si>
   <si>
-    <t>獨裁官</t>
+    <t>独裁官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%A3%AB%E7%B5%B1%E9%A0%98</t>
   </si>
   <si>
-    <t>騎士統領</t>
+    <t>骑士统领</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribuni_militum_consulari_potestate</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%87%E5%B8%9D</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%92%92_(%E5%A4%B4%E8%A1%94)</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%B3%95</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>統治權</t>
+    <t>统治权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mos_maiorum</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%80%81%E9%99%A2%E7%B5%82%E6%A5%B5%E8%AD%B0%E6%B1%BA</t>
   </si>
   <si>
-    <t>元老院終極議決</t>
+    <t>元老院终极议决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>Template talk-古羅馬政治</t>
+    <t>Template talk-古罗马政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -413,25 +413,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>罗马共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%A9%86%E8%B7%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>羅穆路斯</t>
+    <t>罗穆路斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%A5%87%E7%83%8F%E6%96%AF%C2%B7%E5%B0%A4%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E5%B8%83%E9%AD%AF%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>路奇烏斯·尤尼烏斯·布魯圖斯</t>
+    <t>路奇乌斯·尤尼乌斯·布鲁图斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%9F%BA%E4%B9%8C%E6%96%AF%C2%B7%E5%B0%A4%E5%B0%BC%E4%B9%8C%E6%96%AF%C2%B7%E5%B8%83%E9%B2%81%E5%9B%BE%E6%96%AF</t>
@@ -449,27 +446,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>羅馬會議</t>
+    <t>罗马会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4</t>
   </si>
   <si>
-    <t>戒嚴</t>
+    <t>戒严</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E5%8D%87%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>晉升體系</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Marcus_Aemilius_Scaurus</t>
   </si>
   <si>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E4%BA%BA%E6%B4%BE</t>
   </si>
   <si>
-    <t>貴人派</t>
+    <t>贵人派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91%E6%B4%BE</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92</t>
   </si>
   <si>
-    <t>凱撒</t>
+    <t>凯撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%85%83%E8%80%81</t>
@@ -539,31 +533,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%97%E9%95%B7%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>冗長辯論</t>
+    <t>冗长辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%83%8F%E6%96%AF%C2%B7%E9%A1%AF%E6%99%AE%E6%B4%9B%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E6%A0%BC%E6%8B%89%E5%8F%A4</t>
   </si>
   <si>
-    <t>蓋烏斯·顯普洛尼烏斯·格拉古</t>
+    <t>盖乌斯·显普洛尼乌斯·格拉古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%A3%AB%E7%B6%93%E6%BF%9F%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>騎士經濟階級</t>
+    <t>骑士经济阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B2%9D%E9%87%8C%E7%83%8F%E6%96%AF%E4%BA%8C%E4%B8%96%C2%B7%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81</t>
   </si>
   <si>
-    <t>提貝里烏斯二世·君士坦丁</t>
+    <t>提贝里乌斯二世·君士坦丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1</t>
@@ -587,21 +581,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>副執政</t>
+    <t>副执政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
   </si>
   <si>
-    <t>古罗马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
@@ -611,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -623,9 +614,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%85%AC%E6%B0%91</t>
   </si>
   <si>
@@ -641,15 +629,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>西罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>拜占庭帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -677,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -713,37 +695,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E5%AE%98</t>
   </si>
   <si>
-    <t>财务官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%89%A7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>罗马执政官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>监察官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E5%AE%98</t>
   </si>
   <si>
-    <t>独裁官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB%E7%BB%9F%E9%A2%86</t>
   </si>
   <si>
-    <t>骑士统领</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interrex</t>
@@ -791,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -821,9 +788,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
-    <t>罗马会议</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E4%BA%BA%E5%91%BD%E5%90%8D%E4%B9%A0%E4%BF%97</t>
   </si>
   <si>
@@ -851,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -869,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>古羅馬軍事</t>
+    <t>古罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -881,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -929,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
@@ -953,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -1013,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -1025,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -1127,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -1163,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -1205,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -1265,9 +1229,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
   </si>
   <si>
-    <t>西塞罗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E5%9B%BE%E6%96%AF%C2%B7%E6%81%A9%E7%BA%BD%E6%96%AF</t>
   </si>
   <si>
@@ -1301,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -1319,13 +1280,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8A%B3%E5%9B%BE%E6%96%AF</t>
@@ -1367,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -1403,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BA%AB%E6%96%AF%C2%B7%E7%89%B9%E5%80%AB%E6%8F%90%E7%83%8F%E6%96%AF%C2%B7%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>馬庫斯·特倫提烏斯·瓦羅</t>
+    <t>马库斯·特伦提乌斯·瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
@@ -3716,7 +3677,7 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3742,10 +3703,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3771,10 +3732,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>6</v>
@@ -3800,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3829,10 +3790,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3858,10 +3819,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3916,10 +3877,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>13</v>
@@ -3974,10 +3935,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4003,10 +3964,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4032,10 +3993,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4061,10 +4022,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
-      </c>
-      <c r="F78" t="s">
-        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4090,10 +4051,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4119,10 +4080,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4148,10 +4109,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4177,10 +4138,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4206,10 +4167,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4235,10 +4196,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4264,10 +4225,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -4293,10 +4254,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -4322,10 +4283,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4351,10 +4312,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4380,10 +4341,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4409,10 +4370,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4438,10 +4399,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -4467,10 +4428,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4496,10 +4457,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4525,10 +4486,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4554,10 +4515,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -4583,10 +4544,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4612,10 +4573,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4641,10 +4602,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4670,10 +4631,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4699,10 +4660,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4728,10 +4689,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F101" t="s">
         <v>143</v>
-      </c>
-      <c r="F101" t="s">
-        <v>144</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4757,10 +4718,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4786,10 +4747,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
         <v>8</v>
@@ -4815,10 +4776,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4844,10 +4805,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4873,10 +4834,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4934,7 +4895,7 @@
         <v>131</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -4960,10 +4921,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="G109" t="n">
         <v>10</v>
@@ -4989,10 +4950,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5018,10 +4979,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5047,10 +5008,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5076,10 +5037,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5163,10 +5124,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5192,10 +5153,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5221,10 +5182,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5250,10 +5211,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5279,10 +5240,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5337,10 +5298,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5366,10 +5327,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5424,10 +5385,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5598,10 +5559,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F131" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5627,10 +5588,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F132" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5656,10 +5617,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F133" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5685,10 +5646,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F134" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5714,10 +5675,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F135" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5772,10 +5733,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F137" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5801,10 +5762,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F138" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5859,10 +5820,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F140" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5917,10 +5878,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F142" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5975,10 +5936,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F144" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6004,10 +5965,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F145" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6033,10 +5994,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F146" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6062,10 +6023,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6091,10 +6052,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F148" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6120,10 +6081,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F149" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6149,10 +6110,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G150" t="n">
         <v>14</v>
@@ -6178,10 +6139,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F151" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6207,10 +6168,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F152" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6236,10 +6197,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6265,10 +6226,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F154" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6294,10 +6255,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F155" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -6323,10 +6284,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F156" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6352,10 +6313,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F157" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6381,10 +6342,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F158" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6410,10 +6371,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6439,10 +6400,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F160" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6468,10 +6429,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F161" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6497,10 +6458,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6526,10 +6487,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F163" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6555,10 +6516,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F164" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6584,10 +6545,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F165" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6613,10 +6574,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F166" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6642,10 +6603,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F167" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6671,10 +6632,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6700,10 +6661,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F169" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6729,10 +6690,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F170" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6758,10 +6719,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F171" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6787,10 +6748,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6816,10 +6777,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F173" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6845,10 +6806,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F174" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6874,10 +6835,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F175" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6903,10 +6864,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F176" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6932,10 +6893,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F177" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6961,10 +6922,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F178" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6990,10 +6951,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F179" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7019,10 +6980,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F180" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7048,10 +7009,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F181" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7077,10 +7038,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F182" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7106,10 +7067,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F183" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7135,10 +7096,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F184" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7164,10 +7125,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F185" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7193,10 +7154,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F186" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7222,10 +7183,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F187" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7251,10 +7212,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F188" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7280,10 +7241,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F189" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7309,10 +7270,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F190" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7338,10 +7299,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F191" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7367,10 +7328,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F192" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7396,10 +7357,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F193" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7425,10 +7386,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F194" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7454,10 +7415,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F195" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7483,10 +7444,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F196" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7512,10 +7473,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F197" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7541,10 +7502,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F198" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7570,10 +7531,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F199" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7599,10 +7560,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F200" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7628,10 +7589,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F201" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7657,10 +7618,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F202" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7686,10 +7647,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F203" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7715,10 +7676,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F204" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7744,10 +7705,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F205" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7773,10 +7734,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F206" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7802,10 +7763,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F207" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7831,10 +7792,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F208" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7860,10 +7821,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F209" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7889,10 +7850,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F210" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7918,10 +7879,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F211" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7947,10 +7908,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F212" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7976,10 +7937,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F213" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8005,10 +7966,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F214" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8034,10 +7995,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F215" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8092,10 +8053,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F217" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8121,10 +8082,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F218" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8150,10 +8111,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F219" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8179,10 +8140,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F220" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8208,10 +8169,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F221" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8237,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F222" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8266,10 +8227,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F223" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8295,10 +8256,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F224" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8324,10 +8285,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F225" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8353,10 +8314,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F226" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8382,10 +8343,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F227" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8411,10 +8372,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F228" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8440,10 +8401,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F229" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8469,10 +8430,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F230" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8498,10 +8459,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F231" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8527,10 +8488,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F232" t="s">
-        <v>416</v>
+        <v>147</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8556,10 +8517,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F233" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8585,10 +8546,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F234" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8614,10 +8575,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F235" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8643,10 +8604,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F236" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8672,10 +8633,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F237" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8701,10 +8662,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F238" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8730,10 +8691,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F239" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8759,10 +8720,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F240" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8788,10 +8749,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F241" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8817,10 +8778,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8846,10 +8807,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F243" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8875,10 +8836,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F244" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8904,10 +8865,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F245" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8933,10 +8894,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F246" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8962,10 +8923,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F247" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8991,10 +8952,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F248" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9020,10 +8981,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="F249" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9049,10 +9010,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="F250" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9078,10 +9039,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F251" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9107,10 +9068,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F252" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9136,10 +9097,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F253" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9165,10 +9126,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="F254" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9194,10 +9155,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F255" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9223,10 +9184,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="F256" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9252,10 +9213,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F257" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9281,10 +9242,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F258" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9310,10 +9271,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F259" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9339,10 +9300,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F260" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9368,10 +9329,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F261" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9397,10 +9358,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F262" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9426,10 +9387,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F263" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9455,10 +9416,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F264" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -9484,10 +9445,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F265" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
